--- a/data/trans_bre/P17A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P17A_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,84%</t>
+          <t>118,05%</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 8,87</t>
+          <t>-6,98; 8,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 22,48</t>
+          <t>-1,7; 5,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 152,44</t>
+          <t>-49,85; 139,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>406,25%</t>
+          <t>316,29%</t>
         </is>
       </c>
     </row>
@@ -669,17 +669,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,76</t>
+          <t>-4,57; 5,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,53</t>
+          <t>-0,31; 4,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,16; 132,13</t>
+          <t>-46,07; 133,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>43,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,42%</t>
+          <t>32,02%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 7,01</t>
+          <t>-1,47; 7,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 13,62</t>
+          <t>-1,74; 2,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 156,64</t>
+          <t>-18,38; 165,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,3; 622,86</t>
+          <t>-74,62; 490,65</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>72,31%</t>
+          <t>72,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>451,54%</t>
+          <t>404,6%</t>
         </is>
       </c>
     </row>
@@ -789,17 +789,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,26</t>
+          <t>0,68; 9,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 17,74</t>
+          <t>-0,07; 3,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 189,04</t>
+          <t>6,78; 209,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>143,51%</t>
+          <t>143,52%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>147,28%</t>
+          <t>134,73%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 10,82</t>
+          <t>1,93; 10,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 16,83</t>
+          <t>-0,86; 3,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 409,06</t>
+          <t>24,31; 422,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,29</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>80,25%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,3%</t>
+          <t>-38,98%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 15,77</t>
+          <t>2,2; 16,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 6,14</t>
+          <t>-10,83; 1,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 197,2</t>
+          <t>7,37; 196,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,98; 46,95</t>
+          <t>-85,95; 62,58</t>
         </is>
       </c>
     </row>
@@ -946,17 +946,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>62,3%</t>
+          <t>62,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>38,02%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,13</t>
+          <t>2,33; 7,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 9,23</t>
+          <t>-0,87; 1,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,71; 110,4</t>
+          <t>25,58; 104,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 158,96</t>
+          <t>-32,79; 159,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P17A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P17A_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17,53%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>118,05%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.71821797944352</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.257499025511887</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1753193269011925</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.6059129030255179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 8,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 5,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-49,85; 139,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.983386714884237</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.17202652835579</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.4984993434663888</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.004909835817402</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.06542413173418</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.398622389354974</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>316,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 5,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 4,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-46,07; 133,06</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.9225778312496019</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.231184100718655</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1305011733325269</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>4.013905537003358</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>43,26%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>32,02%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.572544437891032</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4606902855955716</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 7,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 2,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,38; 165,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-74,62; 490,65</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.658207640432159</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.36458158524884</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.330595481590682</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +708,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>72,33%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>404,6%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.718295120305009</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.817494432359366</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.4326206402294008</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5744082724164614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 9,33</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 3,51</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 209,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.470121572742439</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.939075676629395</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1837689256314991</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.628835699478195</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.017592856764495</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.68514305507405</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.659711192738134</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>6.371749985475695</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,99</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>143,52%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>134,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 10,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 3,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>24,31; 422,38</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.951278540971747</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.014359045363612</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.7232532990748167</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>4.487048906690664</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>80,26%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-38,98%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.6796710617529075</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.5806956207737549</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.06783260554199323</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 16,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 1,95</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 196,83</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-85,95; 62,58</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.327421900586002</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.69866194536506</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.092743057664882</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +832,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>62,29%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>38,02%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.987682482056528</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.914543560929211</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>1.435196355575091</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1.464238048342461</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 7,0</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 1,96</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>25,58; 104,83</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-32,79; 159,26</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1.929688301371518</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.090360114188798</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.24307917526139</v>
+      </c>
+      <c r="F17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.88896792956584</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>16.75268697729849</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>4.22378412288967</v>
+      </c>
+      <c r="F18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>9.325705841128912</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-13.00295972669968</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.802586738446048</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.4278065710427572</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>2.204635296476012</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-38.96059054262636</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.07373480096083727</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.8411790621572367</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>16.10392643130879</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.454839417825332</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.968331361085188</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.4382176530304767</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.710826600890268</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.58208292581316</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.6228561759050848</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.3965065744327355</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2.326788537341929</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.247599995476077</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.2558018575742112</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2941307059328233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.997982778487069</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.317590420037066</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>1.04825081618783</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1.608271465361634</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1018,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
